--- a/data/tab_wfa_girls_p_0_5.xlsx
+++ b/data/tab_wfa_girls_p_0_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\MGRS tables convertion\New LMS txt tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrobinson/Documents/git-repos/dried-fish/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB319F7-EAF9-44B7-BBCF-AF0D51BB6C43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6518053-518A-1B42-B32B-7662B75E249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab_wfa_girls_p_0_5" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +399,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -560,8 +566,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -621,9 +630,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -661,7 +670,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -767,7 +776,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -909,21 +918,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1100,7 +1111,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1159,7 +1170,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1277,7 +1288,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1336,66 +1347,66 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>-7.5600000000000001E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7.2969999999999997</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.12204</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>5.5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>5.8</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>6.2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>6.4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>6.7</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>7.3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>7.9</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>8.5</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>8.9</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>10.7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1454,7 +1465,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1572,7 +1583,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1631,7 +1642,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1690,7 +1701,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1749,7 +1760,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1867,7 +1878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1926,7 +1937,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1985,7 +1996,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2044,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2103,7 +2114,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2162,7 +2173,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2221,7 +2232,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2398,7 +2409,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2457,7 +2468,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2516,7 +2527,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2575,7 +2586,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2634,7 +2645,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2693,7 +2704,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2752,7 +2763,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2811,7 +2822,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2870,7 +2881,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2929,7 +2940,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2988,7 +2999,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3047,7 +3058,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3106,7 +3117,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3165,7 +3176,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3224,7 +3235,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3283,7 +3294,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3342,7 +3353,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3401,7 +3412,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3460,7 +3471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3578,7 +3589,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3637,7 +3648,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3696,7 +3707,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3755,7 +3766,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3814,7 +3825,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3932,7 +3943,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3991,7 +4002,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4109,7 +4120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4168,7 +4179,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4227,7 +4238,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4286,7 +4297,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4345,7 +4356,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4404,7 +4415,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4463,7 +4474,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>

--- a/data/tab_wfa_girls_p_0_5.xlsx
+++ b/data/tab_wfa_girls_p_0_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrobinson/Documents/git-repos/dried-fish/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/dried-fish/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6518053-518A-1B42-B32B-7662B75E249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD944A-37E4-534B-82F3-8307FCFABB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,11 +566,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1377,7 @@
       <c r="J8" s="1">
         <v>6.4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>6.7</v>
       </c>
       <c r="L8" s="1">
@@ -3117,62 +3116,62 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>-0.3201</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>13.850300000000001</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.12919</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>9.5</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>10.4</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>11</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>11.3</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>11.8</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>12.1</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>12.7</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>13.9</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>15.1</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>15.9</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="1">
         <v>17.3</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>17.8</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>19</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="1">
         <v>21.2</v>
       </c>
     </row>
